--- a/ESTIMATIVA PLANNING POKER.xlsx
+++ b/ESTIMATIVA PLANNING POKER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michel.oliveira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michel.oliveira\Desktop\AnaliseDeNegocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B72C2-F841-4D18-AC11-94A5733B3786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCDA893-4EFC-4618-B0A0-3DEF34ECC3E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6915" xr2:uid="{3A1A9261-DCA5-4AB2-8D10-81AF1128E7F5}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t>ESTIMATIVAS DE DESENVOLVIMENTO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +33,6 @@
     <t>DESCRIÇÃO</t>
   </si>
   <si>
-    <t>STORY POINTS</t>
-  </si>
-  <si>
     <t>RF001</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>CRIAR COLABORADOR</t>
   </si>
   <si>
-    <t>STORY POINTS X HORAS DE DESENVOLVIMENTO</t>
-  </si>
-  <si>
     <t>4h</t>
   </si>
   <si>
@@ -226,6 +217,33 @@
   </si>
   <si>
     <t>424h</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>ANALISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORY POINTS X HORAS </t>
+  </si>
+  <si>
+    <t>ESTIMATIVAS</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>TOTAL DE HORAS DE ANALISE</t>
+  </si>
+  <si>
+    <t>312h</t>
+  </si>
+  <si>
+    <t>TOTAL DE HORAS DE UX</t>
+  </si>
+  <si>
+    <t>352h</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +304,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,11 +368,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,37 +395,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,420 +763,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4022BF01-B576-46DC-B478-FF90CFEBA485}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="22">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="22">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="22">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="22">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E13" s="23">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="22">
+        <v>2</v>
+      </c>
+      <c r="D25" s="24">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="D27" s="24">
+        <v>8</v>
+      </c>
+      <c r="E27" s="23">
         <v>5</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="D28" s="24">
+        <v>5</v>
+      </c>
+      <c r="E28" s="23">
         <v>8</v>
       </c>
-      <c r="E7" s="10">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="22">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14">
-        <v>3</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="D29" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="E29" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="17">
-        <v>13</v>
-      </c>
+      <c r="F29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
